--- a/01_PowerBI/CountriesWorld.xlsx
+++ b/01_PowerBI/CountriesWorld.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Desktop\POWER BI\POWER BI KURS (Ekim 2023)\1.Hafta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Desktop\POWER BI\Power BI Kurs Eylül 2024\2.Hafta (Power Query)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC50E32-E1EA-4EE6-93FD-858FEC784E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4FDFEF-CDEE-4630-9CB2-2FB8E05568EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="620">
   <si>
     <t>Country</t>
   </si>
@@ -1881,6 +1881,9 @@
   </si>
   <si>
     <t>40.6</t>
+  </si>
+  <si>
+    <t>Source:</t>
   </si>
 </sst>
 </file>
@@ -2370,48 +2373,48 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="%20 - Vurgu2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="%20 - Vurgu3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="%20 - Vurgu4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="%20 - Vurgu5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="%20 - Vurgu6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="%40 - Vurgu1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="%40 - Vurgu2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="%40 - Vurgu3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="%40 - Vurgu4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="%40 - Vurgu5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="%40 - Vurgu6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="%60 - Vurgu1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="%60 - Vurgu2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="%60 - Vurgu3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="%60 - Vurgu4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="%60 - Vurgu5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="%60 - Vurgu6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Açıklama Metni" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Ana Başlık" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Bağlı Hücre" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Başlık 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Başlık 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Başlık 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Başlık 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Çıkış" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Giriş" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hesaplama" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="İşaretli Hücre" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="İyi" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Kötü" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Not" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Nötr" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Toplam" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Uyarı Metni" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Vurgu1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Vurgu2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Vurgu3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Vurgu4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Vurgu5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Vurgu6" xfId="38" builtinId="49" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -2691,13 +2694,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF1AD87-254B-4DE6-A60B-FAB20BC8D9CC}">
-  <dimension ref="A1:U233"/>
+  <dimension ref="A1:U235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="A235" sqref="A235"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" customWidth="1"/>
     <col min="2" max="2" width="41.21875" customWidth="1"/>
@@ -17016,6 +17019,11 @@
       </c>
       <c r="U233" s="1"/>
     </row>
+    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17030,7 +17038,7 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.5546875" customWidth="1"/>
     <col min="3" max="3" width="9.109375"/>
